--- a/data/EMSSessionNoRes.xlsx
+++ b/data/EMSSessionNoRes.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02:fd:00:05:00:00:00:07:0e:00:00:00:00:00:00</t>
+          <t>0x02:0xfd:0x00:0x05:0x00:0x00:0x00:0x07:0x0e:0x00:0x00:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02:fd:00:06:00:00:00:0d:0e:00:e0:00:10:00:00:00:00:00:00:00:00</t>
+          <t>0x02:0xfd:0x00:0x06:0x00:0x00:0x00:0x0d:0x0e:0x00:0xe0:0x00:0x10:0x00:0x00:0x00:0x00:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>02:fd:00:01:00:00:00:00</t>
+          <t>0x02:0xfd:0x00:0x01:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02:fd:00:04:00:00:00:21:31:32:33:34:35:36:37:38:39:30:31:32:33:34:35:36:37:e0:00:e1:e2:e3:e4:e5:e6:a1:a2:a3:a4:a5:a6:00:00</t>
+          <t>0x02:0xfd:0x00:0x04:0x00:0x00:0x00:0x21:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0xe0:0x00:0xe1:0xe2:0xe3:0xe4:0xe5:0xe6:0xa1:0xa2:0xa3:0xa4:0xa5:0xa6:0x00:0x00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:0e:00:10:32:3e:00</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0x10:0x32:0x3e:0x00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3e:00</t>
+          <t>0x3e:0x00</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:10:32:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:10:32:0e:00:7e:00</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0e:0x00:0x7e:0x00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7e:00</t>
+          <t>0x7e:0x00</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:0e:00:10:32:3e:80</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0x10:0x32:0x3e:0x80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3e:80</t>
+          <t>0x3e:0x80</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:10:32:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:10:32:0e:00:7e:80</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x10:0x32:0x0e:0x00:0x7e:0x80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7e:80</t>
+          <t>0x7e:0x80</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:07:0e:00:10:32:22:f1:90</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x07:0x0e:0x00:0x10:0x32:0x22:0xf1:0x90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22:f1:90</t>
+          <t>0x22:0xf1:0x90</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:10:32:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:18:10:32:0e:00:62:f1:90:4d:41:54:31:32:33:34:35:36:37:38:39:30:31:32:33:34</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x18:0x10:0x32:0x0e:0x00:0x62:0xf1:0x90:0x4d:0x41:0x54:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>62:f1:90:4d:41:54:31:32:33:34:35:36:37:38:39:30:31:32:33:34</t>
+          <t>0x62:0xf1:0x90:0x4d:0x41:0x54:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:0e:00:10:32:10:01</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0x10:0x32:0x10:0x01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10:01</t>
+          <t>0x10:0x01</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:10:32:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0x10:0x32:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:0a:10:32:0e:00:50:01:00:32:01:f4</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x0a:0x10:0x32:0x0e:0x00:0x50:0x01:0x00:0x32:0x01:0xf4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>50:01:00:32:01:f4</t>
+          <t>0x50:0x01:0x00:0x32:0x01:0xf4</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02:fd:00:05:00:00:00:07:0e:00:00:00:00:00:00</t>
+          <t>0x02:0xfd:0x00:0x05:0x00:0x00:0x00:0x07:0x0e:0x00:0x00:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02:fd:00:06:00:00:00:0d:0e:00:e0:00:10:00:00:00:00:00:00:00:00</t>
+          <t>0x02:0xfd:0x00:0x06:0x00:0x00:0x00:0x0d:0x0e:0x00:0xe0:0x00:0x10:0x00:0x00:0x00:0x00:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02:fd:00:01:00:00:00:00</t>
+          <t>0x02:0xfd:0x00:0x01:0x00:0x00:0x00:0x00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02:fd:00:04:00:00:00:21:31:32:33:34:35:36:37:38:39:30:31:32:33:34:35:36:37:e0:00:e1:e2:e3:e4:e5:e6:a1:a2:a3:a4:a5:a6:00:00</t>
+          <t>0x02:0xfd:0x00:0x04:0x00:0x00:0x00:0x21:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0xe0:0x00:0xe1:0xe2:0xe3:0xe4:0xe5:0xe6:0xa1:0xa2:0xa3:0xa4:0xa5:0xa6:0x00:0x00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:0e:00:e0:01:3e:00</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0xe0:0x01:0x3e:0x00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3e:00</t>
+          <t>0x3e:0x00</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:e0:01:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0xe0:0x01:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:e0:01:0e:00:7e:00</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0xe0:0x01:0x0e:0x00:0x7e:0x00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>7e:00</t>
+          <t>0x7e:0x00</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:0e:00:e0:01:3e:80</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0xe0:0x01:0x3e:0x80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3e:80</t>
+          <t>0x3e:0x80</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:e0:01:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0xe0:0x01:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:e0:01:0e:00:7e:80</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0xe0:0x01:0x0e:0x00:0x7e:0x80</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7e:80</t>
+          <t>0x7e:0x80</t>
         </is>
       </c>
     </row>
@@ -1492,12 +1492,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:07:0e:00:e0:01:22:f1:90</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x07:0x0e:0x00:0xe0:0x01:0x22:0xf1:0x90</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>22:f1:90</t>
+          <t>0x22:0xf1:0x90</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:e0:01:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0xe0:0x01:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:18:e0:01:0e:00:62:f1:90:4d:41:54:31:32:33:34:35:36:37:38:39:30:31:32:33:34</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x18:0xe0:0x01:0x0e:0x00:0x62:0xf1:0x90:0x4d:0x41:0x54:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>62:f1:90:4d:41:54:31:32:33:34:35:36:37:38:39:30:31:32:33:34</t>
+          <t>0x62:0xf1:0x90:0x4d:0x41:0x54:0x31:0x32:0x33:0x34:0x35:0x36:0x37:0x38:0x39:0x30:0x31:0x32:0x33:0x34</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:0e:00:e0:01:10:02</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0xe0:0x01:0x10:0x02</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>0x10:0x02</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:e0:01:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0xe0:0x01:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:0e:00:e0:01:27:01</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0x0e:0x00:0xe0:0x01:0x27:0x01</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>27:01</t>
+          <t>0x27:0x01</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:e0:01:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0xe0:0x01:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1758,12 +1758,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:09:e0:01:0e:00:67:01:01:01:01</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x09:0xe0:0x01:0x0e:0x00:0x67:0x01:0x01:0x01:0x01</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>67:01:01:01:01</t>
+          <t>0x67:0x01:0x01:0x01:0x01</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:08:0e:00:e0:01:27:02:33:33</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x08:0x0e:0x00:0xe0:0x01:0x27:0x02:0x33:0x33</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>27:02:33:33</t>
+          <t>0x27:0x02:0x33:0x33</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:e0:01:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0xe0:0x01:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:06:e0:01:0e:00:67:02</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x06:0xe0:0x01:0x0e:0x00:0x67:0x02</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>67:02</t>
+          <t>0x67:0x02</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:08:0e:00:e0:01:31:01:02:03</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x08:0x0e:0x00:0xe0:0x01:0x31:0x01:0x02:0x03</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31:01:02:03</t>
+          <t>0x31:0x01:0x02:0x03</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02:fd:80:02:00:00:00:05:e0:01:0e:00:00</t>
+          <t>0x02:0xfd:0x80:0x02:0x00:0x00:0x00:0x05:0xe0:0x01:0x0e:0x00:0x00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02:fd:80:01:00:00:00:08:e0:01:0e:00:71:01:02:03</t>
+          <t>0x02:0xfd:0x80:0x01:0x00:0x00:0x00:0x08:0xe0:0x01:0x0e:0x00:0x71:0x01:0x02:0x03</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>71:01:02:03</t>
+          <t>0x71:0x01:0x02:0x03</t>
         </is>
       </c>
     </row>
